--- a/project_files/50__days.xlsx
+++ b/project_files/50__days.xlsx
@@ -1,52 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a86d62c049aee2c1/New folder_python/Djangoprojects/Turtle_trading/project_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DBADED852D337B7395056FD55F41E63AC530CB45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDUSINDBK" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INDUSINDBK" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>highest_high</t>
+  </si>
+  <si>
+    <t>lowest_low</t>
+  </si>
+  <si>
+    <t>entry_signal</t>
+  </si>
+  <si>
+    <t>High - Low</t>
+  </si>
+  <si>
+    <t>High - PDC</t>
+  </si>
+  <si>
+    <t>PDC - Low</t>
+  </si>
+  <si>
+    <t>True Range</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,103 +117,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,2646 +408,2534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>highest_high</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>lowest_low</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>entry_signal</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>High - Low</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>High - PDC</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>PDC - Low</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>True Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>45145</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1410</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1417.650024414062</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1399.349975585938</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1415.25</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1415.25</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2792582</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>18.300048828125</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>18.300048828125</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45146</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1415.25</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1420.949951171875</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1402.300048828125</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1403.949951171875</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1403.949951171875</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1846797</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>18.64990234375</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>5.699951171875</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>12.949951171875</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>18.64990234375</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45147</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1405</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1410.449951171875</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1392</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1408.449951171875</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1408.449951171875</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1218020</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>18.449951171875</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>6.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>11.949951171875</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>18.449951171875</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45148</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1402.449951171875</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1434</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1400.099975585938</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1430.199951171875</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1430.199951171875</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3730443</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>33.9000244140625</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>25.550048828125</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>8.3499755859375</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>33.9000244140625</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45149</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1431.75</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1431.75</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1392.75</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1397.25</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1397.25</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3074690</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>39</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1.550048828125</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>37.449951171875</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45152</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1395</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1397.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1379.050048828125</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1388.900024414062</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1388.900024414062</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1783022</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>18.449951171875</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.25</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>18.199951171875</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>18.449951171875</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45154</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1384</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1388.050048828125</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1367</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1380.699951171875</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1380.699951171875</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2051360</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>21.050048828125</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-0.8499755859375</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>21.9000244140625</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>21.9000244140625</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45155</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1381.150024414062</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1391.25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1370</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1374.300048828125</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1374.300048828125</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3329471</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>21.25</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>10.550048828125</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>10.699951171875</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>21.25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45156</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1369</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1377</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1360.849975585938</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1371.699951171875</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1371.699951171875</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1720129</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>16.1500244140625</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>2.699951171875</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>13.4500732421875</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>16.1500244140625</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45159</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1375</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1400</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1366.199951171875</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1397.800048828125</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1397.800048828125</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1763990</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>33.800048828125</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>28.300048828125</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>5.5</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>33.800048828125</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45160</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1403</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1404.599975585938</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1394.099975585938</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1401.150024414062</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1401.150024414062</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1224910</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>10.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>6.7999267578125</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>3.7000732421875</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>10.5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45161</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1401.150024414062</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1408</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1392.150024414062</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1401</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1401</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1681561</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>15.8499755859375</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>6.8499755859375</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>9</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>15.8499755859375</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>45162</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1408.25</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1435</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1402.25</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1425.150024414062</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1425.150024414062</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3559546</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>32.75</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>34</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-1.25</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>34</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>45163</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1417.949951171875</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1421.449951171875</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1389.050048828125</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1401.150024414062</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1401.150024414062</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1862535</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>32.39990234375</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>-3.7000732421875</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>36.0999755859375</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>36.0999755859375</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45166</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1400</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1411.25</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1393.800048828125</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1409.449951171875</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1409.449951171875</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1072295</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>17.449951171875</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>10.0999755859375</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>7.3499755859375</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>17.449951171875</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45167</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1409.449951171875</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1413.699951171875</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1392.449951171875</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1400.150024414062</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>1400.150024414062</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>1831565</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>21.25</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>4.25</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>17</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>21.25</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45168</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1405.150024414062</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1410.900024414062</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1386.849975585938</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1392.449951171875</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1392.449951171875</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1500390</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>24.050048828125</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>10.75</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>13.300048828125</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>24.050048828125</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>45169</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1392.449951171875</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1401.900024414062</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1363.25</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1378.150024414062</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>1378.150024414062</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>4106180</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>38.6500244140625</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>9.4500732421875</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>29.199951171875</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>38.6500244140625</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45170</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1382</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1423.599975585938</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1376.199951171875</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1416.550048828125</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>1416.550048828125</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>2792033</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>47.4000244140625</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>45.449951171875</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>1.9500732421875</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>47.4000244140625</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>45173</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1423.849975585938</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1427.5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1415</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1421.800048828125</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1421.800048828125</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>998692</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>12.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>10.949951171875</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>1.550048828125</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>12.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>45174</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1425</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1429.800048828125</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1416.349975585938</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1423.75</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1423.75</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1469938</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>1360.849975585938</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>13.4500732421875</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>5.4500732421875</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>13.4500732421875</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>45175</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1421.75</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1421.75</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1396.449951171875</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1408.650024414062</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1408.650024414062</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>4046484</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>1360.849975585938</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>25.300048828125</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>-2</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>27.300048828125</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>27.300048828125</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>45176</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1408.650024414062</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1443.199951171875</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>1398</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1439.599975585938</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1439.599975585938</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2278316</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>1360.849975585938</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>45.199951171875</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>34.5499267578125</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>10.6500244140625</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>45.199951171875</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>45177</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1445</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1459.949951171875</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1434.099975585938</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1448.849975585938</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1448.849975585938</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>2862657</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>1360.849975585938</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>25.8499755859375</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>20.3499755859375</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>5.5</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>25.8499755859375</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>45180</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1449.050048828125</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1452</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>1431.75</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1450.199951171875</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1450.199951171875</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2220230</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>1360.849975585938</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>20.25</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>3.1500244140625</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>17.0999755859375</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>20.25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>45181</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1450.099975585938</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1453.900024414062</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>1425.099975585938</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1429.150024414062</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1429.150024414062</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1943026</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>1360.849975585938</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>28.800048828125</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>3.7000732421875</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>25.0999755859375</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>28.800048828125</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>45182</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1429.900024414062</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1459.650024414062</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1416.050048828125</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>1455.050048828125</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1455.050048828125</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>4302942</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>1360.849975585938</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>43.5999755859375</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>30.5</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>13.0999755859375</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>43.5999755859375</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>45183</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1459.949951171875</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1467.849975585938</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>1450.449951171875</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1458.25</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1458.25</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2407947</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>1360.849975585938</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>17.4000244140625</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>12.7999267578125</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>4.60009765625</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>17.4000244140625</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>45184</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1464.400024414062</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1464.400024414062</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>1446.449951171875</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>1450</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1450</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1647901</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>1360.849975585938</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>17.9500732421875</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>6.1500244140625</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>11.800048828125</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>17.9500732421875</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>45187</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1454</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1462.75</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1445.150024414062</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1456.900024414062</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1456.900024414062</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1504046</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>1363.25</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>17.5999755859375</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>12.75</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>4.8499755859375</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>17.5999755859375</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>45189</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1441</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1475.650024414062</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1422.300048828125</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>1440.449951171875</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1440.449951171875</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>5683215</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>1363.25</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>53.3499755859375</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>18.75</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>34.5999755859375</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>53.3499755859375</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>45190</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1431</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1443.650024414062</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1406.349975585938</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>1411.300048828125</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1411.300048828125</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2514377</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>1363.25</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>37.300048828125</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>3.2000732421875</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>34.0999755859375</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>37.300048828125</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>45191</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1416</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1463.5</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1413</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>1452.900024414062</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1452.900024414062</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>4397398</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>1363.25</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>50.5</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>52.199951171875</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>-1.699951171875</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>52.199951171875</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>45194</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1451.5</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1454.550048828125</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1434.099975585938</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>1442.75</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1442.75</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2013653</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>1363.25</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>20.4500732421875</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>1.6500244140625</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>18.800048828125</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>20.4500732421875</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>45195</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1440</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1443.949951171875</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1411.650024414062</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>1423.050048828125</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1423.050048828125</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2870137</v>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>1363.25</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>32.2999267578125</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>1.199951171875</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>31.0999755859375</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>32.2999267578125</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>45196</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1425</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1439</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1418.300048828125</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>1436.449951171875</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1436.449951171875</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3697690</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>1363.25</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>20.699951171875</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>15.949951171875</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>4.75</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>20.699951171875</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>45197</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1437</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1445.349975585938</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1409.449951171875</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>1413</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1413</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>5876746</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>1363.25</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>35.9000244140625</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>8.9000244140625</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>27</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>35.9000244140625</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>45198</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1415.050048828125</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1439.949951171875</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1399.300048828125</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>1428.849975585938</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>1428.849975585938</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>2593595</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>1363.25</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>40.64990234375</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>26.949951171875</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>13.699951171875</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>40.64990234375</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>45202</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1432</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1438.400024414062</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1420</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>1435.400024414062</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>1435.400024414062</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1442499</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>1376.199951171875</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>18.4000244140625</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>9.550048828125</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>8.8499755859375</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>18.4000244140625</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>45203</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1424.849975585938</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1428.5</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1386.199951171875</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>1401.300048828125</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>1401.300048828125</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>3978667</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>1396.449951171875</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>-1</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>42.300048828125</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>-6.9000244140625</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>49.2000732421875</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>49.2000732421875</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>45204</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1408.699951171875</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1415.400024414062</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1394.300048828125</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>1401.849975585938</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>1401.849975585938</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1647175</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>1386.199951171875</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>21.0999755859375</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>14.0999755859375</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>7</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>21.0999755859375</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>45205</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1404.949951171875</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1438</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1401.099975585938</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>1434.800048828125</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>1434.800048828125</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>2167139</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>1386.199951171875</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>36.9000244140625</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>36.1500244140625</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>0.75</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>36.9000244140625</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>45208</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1420.099975585938</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1445</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1410</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>1428.550048828125</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1428.550048828125</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>1613546</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>1386.199951171875</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>35</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>10.199951171875</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>24.800048828125</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>35</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>45209</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1434</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1436.349975585938</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1412.050048828125</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>1420.550048828125</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1420.550048828125</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1874201</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>1386.199951171875</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>24.2999267578125</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>7.7999267578125</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>16.5</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>24.2999267578125</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>45210</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1430.949951171875</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1431.900024414062</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1414.550048828125</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>1421.199951171875</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1421.199951171875</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1855211</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>1386.199951171875</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>17.3499755859375</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>11.3499755859375</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>6</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>17.3499755859375</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>45211</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1433.300048828125</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1444</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1421</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>1424.25</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1424.25</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>2069952</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>1386.199951171875</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>23</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>22.800048828125</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>0.199951171875</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>23</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>45212</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1421.199951171875</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1466.300048828125</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1420</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>1463.699951171875</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1463.699951171875</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>4480890</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>1386.199951171875</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>46.300048828125</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>42.050048828125</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>4.25</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>46.300048828125</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>45215</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1462.849975585938</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1462.849975585938</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1444.449951171875</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>1446.400024414062</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1446.400024414062</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>1913782</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>1386.199951171875</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>18.4000244140625</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>-0.8499755859375</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>19.25</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>19.25</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="n">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>45216</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1454.900024414062</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1458.449951171875</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1425.550048828125</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>1436</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>1436</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>1373704</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>1386.199951171875</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>32.89990234375</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>12.0499267578125</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>20.8499755859375</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>32.89990234375</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>45217</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1437</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1444</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>1415.599975585938</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>1420.349975585938</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>1420.349975585938</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>3067244</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>1386.199951171875</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>28.4000244140625</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>8</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>20.4000244140625</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>28.4000244140625</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>45218</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1451.5</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1464.699951171875</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>1423.050048828125</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>1450.349975585938</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>1450.349975585938</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>13948984</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>1475.650024414062</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>1386.199951171875</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>41.64990234375</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>44.3499755859375</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>-2.7000732421875</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>44.3499755859375</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>45219</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1448</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1471.800048828125</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>1443.099975585938</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>1469.099975585938</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>1469.099975585938</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>5135316</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>1475.650024414062</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>1386.199951171875</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>28.7000732421875</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>21.4500732421875</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>7.25</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>28.7000732421875</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4" t="n">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>45222</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1469</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1469.75</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>1430.050048828125</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>1435</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>1435</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>3319090</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>1475.650024414062</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>1386.199951171875</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>39.699951171875</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>0.6500244140625</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>39.0499267578125</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>39.699951171875</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>45224</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1444.949951171875</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1446.949951171875</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>1410.050048828125</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>1412.699951171875</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>1412.699951171875</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>4045910</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>1475.650024414062</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>1386.199951171875</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>36.89990234375</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>11.949951171875</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>24.949951171875</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>36.89990234375</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="n">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>45225</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1412.650024414062</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1429.300048828125</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1393.650024414062</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>1414.650024414062</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>1414.650024414062</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>4194418</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>1475.650024414062</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>1386.199951171875</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>35.6500244140625</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>16.60009765625</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>19.0499267578125</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>35.6500244140625</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>45226</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1420</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1444.5</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1412.699951171875</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>1441.300048828125</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>1441.300048828125</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>2424655</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>1475.650024414062</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>1386.199951171875</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
         <v>31.800048828125</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>29.8499755859375</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>1.9500732421875</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>31.800048828125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>45229</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1440</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1460.900024414062</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>1428</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>1454.650024414062</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>1454.650024414062</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>2255111</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>1475.650024414062</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>1386.199951171875</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>32.9000244140625</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>19.5999755859375</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>13.300048828125</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>32.9000244140625</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>45230</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1456</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1460</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>1436.550048828125</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>1441.300048828125</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>1441.300048828125</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>1454345</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>1475.650024414062</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>1386.199951171875</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>23.449951171875</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>5.3499755859375</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>18.0999755859375</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>23.449951171875</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>45231</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1443.900024414062</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1445.599975585938</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1427.150024414062</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>1432.599975585938</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>1432.599975585938</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>2658439</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>1475.650024414062</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>1386.199951171875</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>18.449951171875</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>4.2999267578125</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>14.1500244140625</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60">
         <v>18.449951171875</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>45232</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1447</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1479.949951171875</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1439.099975585938</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>1461.199951171875</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>1461.199951171875</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>4524652</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>1475.650024414062</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>1386.199951171875</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>1</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>40.8499755859375</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>47.3499755859375</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>-6.5</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>47.3499755859375</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="4" t="n">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>45233</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>1471</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1475</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1448</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>1450.25</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>1450.25</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>3052041</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>1479.949951171875</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1393.650024414062</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>27</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>13.800048828125</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>13.199951171875</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>27</v>
       </c>
     </row>
